--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -43,7 +43,7 @@
     <t xml:space="preserve">AAA</t>
   </si>
   <si>
-    <t xml:space="preserve">01</t>
+    <t xml:space="preserve">101</t>
   </si>
   <si>
     <t xml:space="preserve">壱</t>
@@ -55,7 +55,7 @@
     <t xml:space="preserve">BBB</t>
   </si>
   <si>
-    <t xml:space="preserve">02</t>
+    <t xml:space="preserve">102</t>
   </si>
   <si>
     <t xml:space="preserve">弐</t>
@@ -67,7 +67,7 @@
     <t xml:space="preserve">CCC</t>
   </si>
   <si>
-    <t xml:space="preserve">03</t>
+    <t xml:space="preserve">103</t>
   </si>
   <si>
     <t xml:space="preserve">参</t>
@@ -79,7 +79,7 @@
     <t xml:space="preserve">DDD</t>
   </si>
   <si>
-    <t xml:space="preserve">04</t>
+    <t xml:space="preserve">104</t>
   </si>
   <si>
     <t xml:space="preserve">肆</t>
@@ -91,7 +91,7 @@
     <t xml:space="preserve">EEE</t>
   </si>
   <si>
-    <t xml:space="preserve">05</t>
+    <t xml:space="preserve">105</t>
   </si>
   <si>
     <t xml:space="preserve">伍</t>
@@ -103,7 +103,7 @@
     <t xml:space="preserve">FFF</t>
   </si>
   <si>
-    <t xml:space="preserve">06</t>
+    <t xml:space="preserve">106</t>
   </si>
   <si>
     <t xml:space="preserve">陸</t>
@@ -115,7 +115,7 @@
     <t xml:space="preserve">GGG</t>
   </si>
   <si>
-    <t xml:space="preserve">07</t>
+    <t xml:space="preserve">107</t>
   </si>
   <si>
     <t xml:space="preserve">漆</t>
@@ -127,7 +127,7 @@
     <t xml:space="preserve">HHH</t>
   </si>
   <si>
-    <t xml:space="preserve">08</t>
+    <t xml:space="preserve">108</t>
   </si>
   <si>
     <t xml:space="preserve">捌</t>
@@ -139,7 +139,7 @@
     <t xml:space="preserve">III</t>
   </si>
   <si>
-    <t xml:space="preserve">09</t>
+    <t xml:space="preserve">109</t>
   </si>
   <si>
     <t xml:space="preserve">玖</t>
@@ -151,7 +151,7 @@
     <t xml:space="preserve">JJJ</t>
   </si>
   <si>
-    <t xml:space="preserve">10</t>
+    <t xml:space="preserve">110</t>
   </si>
   <si>
     <t xml:space="preserve">拾</t>
@@ -349,7 +349,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2:F11"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
